--- a/submission/testing_submission_trail4_CT_G01.xlsx
+++ b/submission/testing_submission_trail4_CT_G01.xlsx
@@ -1819,19 +1819,19 @@
     <t>intraventricular</t>
   </si>
   <si>
+    <t>intraparenchymal</t>
+  </si>
+  <si>
+    <t>subdural</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>epidural</t>
+  </si>
+  <si>
     <t>subarachnoid</t>
-  </si>
-  <si>
-    <t>subdural</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>intraparenchymal</t>
-  </si>
-  <si>
-    <t>epidural</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6230,7 +6230,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -6246,7 +6246,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6254,7 +6254,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6262,7 +6262,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6270,7 +6270,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -6278,7 +6278,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -6366,7 +6366,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -6374,7 +6374,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -6398,7 +6398,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -6414,7 +6414,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -6430,7 +6430,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6438,7 +6438,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -6446,7 +6446,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -6454,7 +6454,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -6478,7 +6478,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -6486,7 +6486,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -6510,7 +6510,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -6542,7 +6542,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -6558,7 +6558,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -6582,7 +6582,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -6622,7 +6622,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6630,7 +6630,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -6646,7 +6646,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -6662,7 +6662,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -6670,7 +6670,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -6686,7 +6686,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -6694,7 +6694,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -6702,7 +6702,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -6710,7 +6710,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -6718,7 +6718,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -6750,7 +6750,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -6758,7 +6758,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -6822,7 +6822,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -6830,7 +6830,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -6846,7 +6846,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -6894,7 +6894,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -6910,7 +6910,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -6918,7 +6918,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6926,7 +6926,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -6934,7 +6934,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -6942,7 +6942,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -6958,7 +6958,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -6966,7 +6966,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
